--- a/churilo.xlsx
+++ b/churilo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ravota\telegrambot-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ravota\telegrambot-master\checking_comments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
   <si>
     <t>отзывы с фейсбука</t>
   </si>
@@ -35,41 +35,128 @@
     <t>отзывы с других сервисов</t>
   </si>
   <si>
-    <t>старые отзывы</t>
-  </si>
-  <si>
-    <t>вчерашние отзывы</t>
-  </si>
-  <si>
     <t>все</t>
   </si>
   <si>
-    <t>фейсбукчухлибл</t>
-  </si>
-  <si>
-    <t>ютуб</t>
-  </si>
-  <si>
-    <t>всесервисычухлибл</t>
-  </si>
-  <si>
-    <t>старыечухлибл</t>
-  </si>
-  <si>
-    <t>вчерашниечухлибл</t>
-  </si>
-  <si>
-    <t>всечухлиб</t>
-  </si>
-  <si>
-    <t>ютубчухлибл</t>
+    <t>https://facebook.com/story.php?story_fbid=3385243538202213&amp;id=1069049139821676</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MkfbcP6i7rM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dLgZuJVjefE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qyxm_5Pdz7g</t>
+  </si>
+  <si>
+    <t>https://glavcom.ua/news/nazk-viyavilo-u-visokoposadovciv-nezadeklarovanogo-mayna-na-358-mln-grn-spisok-porushnikiv-707017.ht</t>
+  </si>
+  <si>
+    <t>https://uazmi.org/news/post/h2rCNt4jilWAcOtmzx8EcA</t>
+  </si>
+  <si>
+    <t>https://www.rbc.ua/rus/news/napk-nashlo-narusheniy-deklaratsiyah-chinovnikov-1600869524.html</t>
+  </si>
+  <si>
+    <t>https://www.smi.today/ua_smi/1059937-napk-nashlo-narushenijj-v.html</t>
+  </si>
+  <si>
+    <t>http://abomus.com.ua/ru/top-stories/1294104-napk-nashlo-narusheniy-v-deklaraciyah-chinovnikov-na-358-mln-grn</t>
+  </si>
+  <si>
+    <t>http://zbruc.eu/node/100461</t>
+  </si>
+  <si>
+    <t>https://sud.ua/ru/news/ukraine/180000-nazk-viyavilo-u-posadovtsiv-nezadeklarovanogo-mayna-na-358-milyoniv</t>
+  </si>
+  <si>
+    <t>https://informator.press/nazk-u-deklaratsiiakh-chynovnykiv-znayshlo-porushen-na-358-milyoniv-hryven/</t>
+  </si>
+  <si>
+    <t>https://www.depo.ua/ukr/politics/nazk-viyavilo-u-posadovtsiv-ne-zadeklarovane-mayno-na-358-mln-202009231219735</t>
+  </si>
+  <si>
+    <t>https://www.unn.com.ua/uk/news/1893276-nazk-viyavilo-u-posadovtsiv-nezadeklarovanogo-mayna-na-358-mln-grn</t>
+  </si>
+  <si>
+    <t>https://my.ua/news/cluster/2020-09-23-nazk-viiavilo-u-visokoposadovtsiv-nezadeklarovanogo-maina-na-358-mln-grn-spisok-porushnikiv</t>
+  </si>
+  <si>
+    <t>https://www.unn.com.ua/ru/news/1893276-nazk-viyavilo-u-posadovtsiv-nezadeklarovanogo-mayna-na-358-mln-grn</t>
+  </si>
+  <si>
+    <t>http://politrada.com/dossier/Mixail-Mixajlovich-Churilo/</t>
+  </si>
+  <si>
+    <t>http://pressorg24.com/news?id=541589</t>
+  </si>
+  <si>
+    <t>http://kontrakty.ua/article/162887</t>
+  </si>
+  <si>
+    <t>https://7dniv.info/events/127762-narusheniy-v-deklaraciyah-chinovnikov-na-358-mln-grn-nashlo-napk.html</t>
+  </si>
+  <si>
+    <t>http://kordon.org.ua/nazk-u-deklaratsyah-tchinovnikv-znayshlo-porusheny-na-358-mlyyonv-griveny.html</t>
+  </si>
+  <si>
+    <t>https://glavk.net/news/755102-nazk_u_deklaratsijah_chinovnikiv_znajshlo_porushenj_na_358_miljjoniv_grivenj</t>
+  </si>
+  <si>
+    <t>http://novostiua.news/news/1125515-nazk_u_deklaratsijah_chinovnikiv_znajshlo_porushenj_na_358_miljjoniv_grivenj</t>
+  </si>
+  <si>
+    <t>https://patrioty.org.ua/politic/ministry-suddi-ta-deputaty-nazk-nazvalo-top-10-ukrainskykh-chynovnykiv-z-naibilshoiu-sumoiu-prykhovanoho-maina-345557.html</t>
+  </si>
+  <si>
+    <t>http://trassae95.com/all/photo/2020/09/24/deputat-odesskogo-gorsoveta-ot-doveryaj-delam-popal-v-top-5-chinovnikov-ukrainy-ne-zadeklarirovavshih-imucshestvo-58787.html</t>
+  </si>
+  <si>
+    <t>http://topnews.odessa.ua/society/2020/09/24/296258.html</t>
+  </si>
+  <si>
+    <t>http://novyny.kr.ua/society/2020/09/24/119997.html</t>
+  </si>
+  <si>
+    <t>https://news.finance.ua/ru/news/-/478954/napk-nashlo-narushenij-v-deklaratsiyah-chinovnikov-na-358-mln-grn</t>
+  </si>
+  <si>
+    <t>https://uazmi.org/news/post/hDxYlG5QYkOgFw5NsWAPv4</t>
+  </si>
+  <si>
+    <t>https://dyvys.info/2020/09/24/nazk-znajshlo-porushen-u-deklaratsiyah-chynovnykiv-na-358-mln-grn/</t>
+  </si>
+  <si>
+    <t>http://gk-press.if.ua/nazk-vyyavylo-u-prykarpatskogo-posadovtsya-ta-eksmera-kalusha-pryhovani-miljony/</t>
+  </si>
+  <si>
+    <t>вчерашние</t>
+  </si>
+  <si>
+    <t>https://t.me/NAZK_gov_ua/338</t>
+  </si>
+  <si>
+    <t>https://t.me/c/1449473117/6726</t>
+  </si>
+  <si>
+    <t>https://t.me/donbass_inline/92830</t>
+  </si>
+  <si>
+    <t>https://t.me/VGlagola/912</t>
+  </si>
+  <si>
+    <t>https://twitter.com/filolog1973</t>
+  </si>
+  <si>
+    <t>сегодня</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,26 +171,30 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -126,11 +217,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -138,11 +290,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -421,15 +593,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.75" thickBot="1">
+    <row r="1" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,225 +612,453 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="E6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="39.75" thickBot="1">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="27" thickBot="1">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27" thickBot="1">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="27" thickBot="1">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
+    </row>
+    <row r="7" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="27" thickBot="1">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
+      <c r="F9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="180" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1">
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+      <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="180" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1">
+      <c r="C13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+      <c r="C14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1">
+      <c r="C15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1">
+      <c r="C16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1">
+      <c r="C17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1">
+      <c r="C18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1">
+      <c r="C19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1">
+      <c r="C20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
+      <c r="C21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="C21" r:id="rId2"/>
+    <hyperlink ref="C22" r:id="rId3"/>
+    <hyperlink ref="C23" r:id="rId4"/>
+    <hyperlink ref="C24" r:id="rId5"/>
+    <hyperlink ref="C25" r:id="rId6"/>
+    <hyperlink ref="C26" r:id="rId7"/>
+    <hyperlink ref="C27" r:id="rId8"/>
+    <hyperlink ref="C28" r:id="rId9"/>
+    <hyperlink ref="D21" r:id="rId10"/>
+    <hyperlink ref="E2" r:id="rId11"/>
+    <hyperlink ref="E3" r:id="rId12"/>
+    <hyperlink ref="E4" r:id="rId13"/>
+    <hyperlink ref="E5" r:id="rId14"/>
+    <hyperlink ref="E6" r:id="rId15"/>
+    <hyperlink ref="E7" r:id="rId16"/>
+    <hyperlink ref="E8" r:id="rId17"/>
+    <hyperlink ref="F21" r:id="rId18"/>
+    <hyperlink ref="F31" r:id="rId19"/>
+    <hyperlink ref="F32" r:id="rId20"/>
+    <hyperlink ref="F33" r:id="rId21"/>
+    <hyperlink ref="F34" r:id="rId22"/>
+    <hyperlink ref="F35" r:id="rId23"/>
+    <hyperlink ref="F36" r:id="rId24"/>
+    <hyperlink ref="F37" r:id="rId25"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId26"/>
 </worksheet>
 </file>
--- a/churilo.xlsx
+++ b/churilo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -593,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F38" sqref="A1:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,9 +625,6 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
@@ -643,9 +640,6 @@
     </row>
     <row r="3" spans="1:6" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
@@ -661,9 +655,6 @@
     </row>
     <row r="4" spans="1:6" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
@@ -679,9 +670,6 @@
     </row>
     <row r="5" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1028,6 +1016,26 @@
     <row r="37" spans="6:6" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F37" s="7" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/churilo.xlsx
+++ b/churilo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>отзывы с фейсбука</t>
   </si>
@@ -41,15 +41,6 @@
     <t>https://facebook.com/story.php?story_fbid=3385243538202213&amp;id=1069049139821676</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=MkfbcP6i7rM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dLgZuJVjefE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qyxm_5Pdz7g</t>
-  </si>
-  <si>
     <t>https://glavcom.ua/news/nazk-viyavilo-u-visokoposadovciv-nezadeklarovanogo-mayna-na-358-mln-grn-spisok-porushnikiv-707017.ht</t>
   </si>
   <si>
@@ -150,6 +141,39 @@
   </si>
   <si>
     <t>сегодня</t>
+  </si>
+  <si>
+    <t>https://inforesist.org/napk-sostavilo-top-chinovnikov-u-kotoryh-bolshe-vsego-nezadeklarirovannogo-imushhestva/</t>
+  </si>
+  <si>
+    <t>https://inforesist.org/ua/nazk-sklalo-top-chynovnykiv-u-yakyh-najbilpshe-nezadeklarovanogo-majna/</t>
+  </si>
+  <si>
+    <t>https://1k.com.ua/napk-sostavilo-top-chinovnikov-u-kotoryh-bolshe-vsego-nezadeklarirovannogo-imushhestva.html</t>
+  </si>
+  <si>
+    <t>https://zak.depo.ua/ukr/zak/nazk-viyavilo-u-deputata-uzhgorodskoi-miskradi-churila-nezadeklarovanogo-mayna-na-953-mln-grn-202009241220028</t>
+  </si>
+  <si>
+    <t>https://if.depo.ua/ukr/prykarpattya/nazk-viyavilo-u-prikarpatskogo-posadovtsya-ta-eksmera-kalusha-prikhovani-milyoni-202009241220017</t>
+  </si>
+  <si>
+    <t>http://www.mukachevo.net/ua/news/view/961220</t>
+  </si>
+  <si>
+    <t>https://timer-odessa.net/news/spryatal_ot_nalogovoy_27_millionov_odesskiy_deputat_popal_v_top_uklonistov_ukraini_706.html</t>
+  </si>
+  <si>
+    <t>https://newsmir.info/2202864</t>
+  </si>
+  <si>
+    <t>https://dubinsky.pro/news/42-chinovnikov-poymali-na-ukryvanii-imushchestva-pochti-na-360-mln-grn-spisok-krupneyshih</t>
+  </si>
+  <si>
+    <t>https://radar24.info/news/spriatal-ot-nalogovoi-27-millionov-odesskii-deputat-popal-v-top-uklonistov-ukrainy-33524</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1dTH-EjVYs0_KNDCHZb3WPCkLHshv6kzmRyaQvn6-Mk8/edit#gid=1478090664</t>
   </si>
 </sst>
 </file>
@@ -186,15 +210,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -277,12 +307,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -310,6 +355,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -595,13 +649,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F38" sqref="A1:F41"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="44.42578125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="63.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,431 +670,381 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="C5" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="180" thickBot="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="180" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="7" t="s">
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="7" t="s">
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="7" t="s">
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="78" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="78" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F33" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F34" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F35" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="6:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F36" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="6:6" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F37" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="6:6" ht="78" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F38" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="6:6" ht="78" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F39" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="6:6" ht="78" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="6:6" ht="78" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="6:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="6:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="6:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="6:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="6:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="6:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="6:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="6:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="6:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1057,16 +1065,18 @@
     <hyperlink ref="E6" r:id="rId15"/>
     <hyperlink ref="E7" r:id="rId16"/>
     <hyperlink ref="E8" r:id="rId17"/>
-    <hyperlink ref="F21" r:id="rId18"/>
-    <hyperlink ref="F31" r:id="rId19"/>
-    <hyperlink ref="F32" r:id="rId20"/>
-    <hyperlink ref="F33" r:id="rId21"/>
-    <hyperlink ref="F34" r:id="rId22"/>
-    <hyperlink ref="F35" r:id="rId23"/>
-    <hyperlink ref="F36" r:id="rId24"/>
-    <hyperlink ref="F37" r:id="rId25"/>
+    <hyperlink ref="E9" r:id="rId18"/>
+    <hyperlink ref="E10" r:id="rId19"/>
+    <hyperlink ref="E11" r:id="rId20"/>
+    <hyperlink ref="E12" r:id="rId21"/>
+    <hyperlink ref="E13" r:id="rId22"/>
+    <hyperlink ref="E14" r:id="rId23"/>
+    <hyperlink ref="E15" r:id="rId24"/>
+    <hyperlink ref="E16" r:id="rId25"/>
+    <hyperlink ref="E17" r:id="rId26"/>
+    <hyperlink ref="E18" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId26"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId28"/>
 </worksheet>
 </file>